--- a/guber/800exercise_kevin.xlsx
+++ b/guber/800exercise_kevin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\Downloads\RA Work\guber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146D5371-432E-4B91-AFFD-E02FE7DF4949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8D0E3E-A45A-4383-BA72-F9EC2AA64B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1372">
   <si>
     <t>Snippets</t>
   </si>
@@ -3771,9 +3771,6 @@
     <t>funding, teachers</t>
   </si>
   <si>
-    <t>Medicaid</t>
-  </si>
-  <si>
     <t>wind, power</t>
   </si>
   <si>
@@ -4807,6 +4804,165 @@
   </si>
   <si>
     <t>historic, reform, budget</t>
+  </si>
+  <si>
+    <t>roads, schools</t>
+  </si>
+  <si>
+    <t>coal, energy</t>
+  </si>
+  <si>
+    <t>accountability</t>
+  </si>
+  <si>
+    <t>budget, prisons</t>
+  </si>
+  <si>
+    <t>protect, island, environmental</t>
+  </si>
+  <si>
+    <t>income, taxed</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>budget, schools</t>
+  </si>
+  <si>
+    <t>addiction, criminal</t>
+  </si>
+  <si>
+    <t>schools, violence</t>
+  </si>
+  <si>
+    <t>renewable, energy</t>
+  </si>
+  <si>
+    <t>telephone, broadband</t>
+  </si>
+  <si>
+    <t>emergency, infrastructure</t>
+  </si>
+  <si>
+    <t>wrongful, taxation</t>
+  </si>
+  <si>
+    <t>medcaid</t>
+  </si>
+  <si>
+    <t>environment, industries</t>
+  </si>
+  <si>
+    <t>teachers, retirement</t>
+  </si>
+  <si>
+    <t>infrastructure, safety</t>
+  </si>
+  <si>
+    <t>prices, tax, deductions, health, drugs</t>
+  </si>
+  <si>
+    <t>prison, alternative, sentencing, drugs, alcohol</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>security, violent, crime, parole</t>
+  </si>
+  <si>
+    <t>prison, recidivism</t>
+  </si>
+  <si>
+    <t>reduce, taxes</t>
+  </si>
+  <si>
+    <t>oil, gas, roads, timber, fisheries</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>climate, carbon, greenhouse</t>
+  </si>
+  <si>
+    <t>roads, water</t>
+  </si>
+  <si>
+    <t>transportation, highways</t>
+  </si>
+  <si>
+    <t>transportation, drug</t>
+  </si>
+  <si>
+    <t>supervision, inmates, parole</t>
+  </si>
+  <si>
+    <t>system, medicaid</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>teachers, background, check</t>
+  </si>
+  <si>
+    <t>wind, renewable, energy</t>
+  </si>
+  <si>
+    <t>juvenile, reform</t>
+  </si>
+  <si>
+    <t>domestic, violence</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>I-JOBS</t>
+  </si>
+  <si>
+    <t>pension, debt</t>
+  </si>
+  <si>
+    <t>shelter, homeless, mental, illnesses, domestic, violence</t>
+  </si>
+  <si>
+    <t>classroom</t>
+  </si>
+  <si>
+    <t>income, taxes</t>
+  </si>
+  <si>
+    <t>raise, educators</t>
+  </si>
+  <si>
+    <t>casino</t>
+  </si>
+  <si>
+    <t>paperwork</t>
+  </si>
+  <si>
+    <t>operations</t>
+  </si>
+  <si>
+    <t>degrees, college</t>
+  </si>
+  <si>
+    <t>preschool</t>
+  </si>
+  <si>
+    <t>parole, prison</t>
+  </si>
+  <si>
+    <t>cash, grants, vouchers</t>
+  </si>
+  <si>
+    <t>economic, opportunity</t>
+  </si>
+  <si>
+    <t>energy, offices, paperwork</t>
   </si>
 </sst>
 </file>
@@ -6147,10 +6303,10 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B500" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B799" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F501" sqref="F501"/>
+      <selection pane="bottomRight" activeCell="B801" sqref="B801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6186,7 +6342,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="260.10000000000002" customHeight="1">
@@ -6398,10 +6554,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="332.1" customHeight="1">
@@ -6493,7 +6649,7 @@
         <v>867</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="236.1" customHeight="1">
@@ -6544,10 +6700,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="248.1" customHeight="1">
@@ -6573,10 +6729,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="409.5" customHeight="1">
@@ -6713,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="356.1" customHeight="1">
@@ -6742,10 +6898,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="248.1" customHeight="1">
@@ -6771,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="356.1" customHeight="1">
@@ -6884,10 +7040,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="409.5" customHeight="1">
@@ -7066,10 +7222,10 @@
         <v>1</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="409.5" customHeight="1">
@@ -7185,10 +7341,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="116.1" customHeight="1">
@@ -7214,10 +7370,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="409.5" customHeight="1">
@@ -7447,7 +7603,7 @@
         <v>873</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="140.1" customHeight="1">
@@ -7515,10 +7671,10 @@
         <v>0</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="104.1" customHeight="1">
@@ -7775,7 +7931,7 @@
         <v>876</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="296.10000000000002" customHeight="1">
@@ -7858,7 +8014,7 @@
         <v>32</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="356.1" customHeight="1">
@@ -7884,10 +8040,10 @@
         <v>1</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="409.5" customHeight="1">
@@ -7913,10 +8069,10 @@
         <v>1</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="409.5" customHeight="1">
@@ -7987,7 +8143,7 @@
         <v>879</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="344.1" customHeight="1">
@@ -8055,10 +8211,10 @@
         <v>1</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="164.1" customHeight="1">
@@ -8087,7 +8243,7 @@
         <v>910</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="409.5" customHeight="1">
@@ -8113,10 +8269,10 @@
         <v>0</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="344.1" customHeight="1">
@@ -8205,10 +8361,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="248.1" customHeight="1">
@@ -8231,7 +8387,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="200.1" customHeight="1">
@@ -8345,10 +8501,10 @@
         <v>1</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="140.1" customHeight="1">
@@ -8509,7 +8665,7 @@
         <v>881</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="344.1" customHeight="1">
@@ -8667,10 +8823,10 @@
         <v>1</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="320.10000000000002" customHeight="1">
@@ -8723,10 +8879,10 @@
         <v>0</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="128.1" customHeight="1">
@@ -8752,10 +8908,10 @@
         <v>0</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="224.1" customHeight="1">
@@ -9112,10 +9268,10 @@
         <v>0</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="260.10000000000002" customHeight="1">
@@ -9141,10 +9297,10 @@
         <v>0</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I125" s="12" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="152.1" customHeight="1">
@@ -9239,10 +9395,10 @@
         <v>1</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I129" s="12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="332.1" customHeight="1">
@@ -9268,10 +9424,10 @@
         <v>1</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="200.1" customHeight="1">
@@ -9318,10 +9474,10 @@
         <v>1</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="I132" s="12" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="152.1" customHeight="1">
@@ -9347,10 +9503,10 @@
         <v>0</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="I133" s="12" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="404.1" customHeight="1">
@@ -9559,7 +9715,7 @@
         <v>889</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="188.1" customHeight="1">
@@ -9585,10 +9741,10 @@
         <v>1</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="224.1" customHeight="1">
@@ -9752,10 +9908,10 @@
         <v>1</v>
       </c>
       <c r="H150" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="I150" s="12" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="409.5" customHeight="1">
@@ -9871,10 +10027,10 @@
         <v>1</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="116.1" customHeight="1">
@@ -9984,10 +10140,10 @@
         <v>0</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="272.10000000000002" customHeight="1">
@@ -10013,10 +10169,10 @@
         <v>0</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="152.1" customHeight="1">
@@ -10153,10 +10309,10 @@
         <v>1</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="409.5" customHeight="1">
@@ -10230,10 +10386,10 @@
         <v>0</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="248.1" customHeight="1">
@@ -10325,7 +10481,7 @@
         <v>969</v>
       </c>
       <c r="I174" s="12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="284.10000000000002" customHeight="1">
@@ -10399,10 +10555,10 @@
         <v>1</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="I177" s="12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="248.1" customHeight="1">
@@ -10593,10 +10749,10 @@
         <v>1</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="260.10000000000002" customHeight="1">
@@ -10787,10 +10943,10 @@
         <v>1</v>
       </c>
       <c r="H193" s="8" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="248.1" customHeight="1">
@@ -11185,7 +11341,7 @@
         <v>32</v>
       </c>
       <c r="I210" s="12" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="236.1" customHeight="1">
@@ -11454,7 +11610,7 @@
         <v>910</v>
       </c>
       <c r="I221" s="12" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="260.10000000000002" customHeight="1">
@@ -11522,10 +11678,10 @@
         <v>1</v>
       </c>
       <c r="H224" s="8" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="I224" s="12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="224.1" customHeight="1">
@@ -11605,10 +11761,10 @@
         <v>0</v>
       </c>
       <c r="H227" s="8" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="I227" s="12" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="272.10000000000002" customHeight="1">
@@ -11655,10 +11811,10 @@
         <v>0</v>
       </c>
       <c r="H229" s="8" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="I229" s="12" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="212.1" customHeight="1">
@@ -11753,10 +11909,10 @@
         <v>1</v>
       </c>
       <c r="H233" s="8" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="I233" s="12" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="409.5" customHeight="1">
@@ -11785,7 +11941,7 @@
         <v>914</v>
       </c>
       <c r="I234" s="12" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="344.1" customHeight="1">
@@ -11811,10 +11967,10 @@
         <v>0</v>
       </c>
       <c r="H235" s="8" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I235" s="12" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="308.10000000000002" customHeight="1">
@@ -11840,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="H236" s="8" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="I236" s="12" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="409.5" customHeight="1">
@@ -11911,10 +12067,10 @@
         <v>0</v>
       </c>
       <c r="H239" s="8" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I239" s="12" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="296.10000000000002" customHeight="1">
@@ -12153,10 +12309,10 @@
         <v>1</v>
       </c>
       <c r="H249" s="8" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I249" s="12" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="236.1" customHeight="1">
@@ -12224,10 +12380,10 @@
         <v>1</v>
       </c>
       <c r="H252" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I252" s="12" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="272.10000000000002" customHeight="1">
@@ -12457,7 +12613,7 @@
         <v>888</v>
       </c>
       <c r="I262" s="12" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="368.1" customHeight="1">
@@ -12573,10 +12729,10 @@
         <v>0</v>
       </c>
       <c r="H267" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I267" s="12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="268" spans="1:9" ht="308.10000000000002" customHeight="1">
@@ -12602,10 +12758,10 @@
         <v>1</v>
       </c>
       <c r="H268" s="8" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="I268" s="12" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="409.5" customHeight="1">
@@ -12631,10 +12787,10 @@
         <v>0</v>
       </c>
       <c r="H269" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="I269" s="12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="272.10000000000002" customHeight="1">
@@ -12768,7 +12924,7 @@
         <v>933</v>
       </c>
       <c r="I275" s="12" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="409.5" customHeight="1">
@@ -12968,10 +13124,10 @@
         <v>1</v>
       </c>
       <c r="H284" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I284" s="12" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="332.1" customHeight="1">
@@ -13039,10 +13195,10 @@
         <v>1</v>
       </c>
       <c r="H287" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="I287" s="12" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="409.5" customHeight="1">
@@ -13068,10 +13224,10 @@
         <v>1</v>
       </c>
       <c r="H288" s="8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="I288" s="12" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="260.10000000000002" customHeight="1">
@@ -13097,10 +13253,10 @@
         <v>1</v>
       </c>
       <c r="H289" s="8" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="I289" s="12" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="164.1" customHeight="1">
@@ -13129,7 +13285,7 @@
         <v>960</v>
       </c>
       <c r="I290" s="12" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="320.10000000000002" customHeight="1">
@@ -13287,10 +13443,10 @@
         <v>0</v>
       </c>
       <c r="H297" s="8" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I297" s="12" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="308.10000000000002" customHeight="1">
@@ -13406,10 +13562,10 @@
         <v>0</v>
       </c>
       <c r="H302" s="8" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="I302" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="308.10000000000002" customHeight="1">
@@ -13483,10 +13639,10 @@
         <v>0</v>
       </c>
       <c r="H305" s="8" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="I305" s="12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="409.5" customHeight="1">
@@ -13512,10 +13668,10 @@
         <v>0</v>
       </c>
       <c r="H306" s="8" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I306" s="12" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="200.1" customHeight="1">
@@ -13562,10 +13718,10 @@
         <v>0</v>
       </c>
       <c r="H308" s="8" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I308" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="356.1" customHeight="1">
@@ -13591,10 +13747,10 @@
         <v>0</v>
       </c>
       <c r="H309" s="8" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I309" s="12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="248.1" customHeight="1">
@@ -13668,10 +13824,10 @@
         <v>0</v>
       </c>
       <c r="H312" s="8" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I312" s="12" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="332.1" customHeight="1">
@@ -13697,10 +13853,10 @@
         <v>1</v>
       </c>
       <c r="H313" s="8" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I313" s="12" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="409.5" customHeight="1">
@@ -13774,10 +13930,10 @@
         <v>0</v>
       </c>
       <c r="H316" s="8" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I316" s="12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="409.5" customHeight="1">
@@ -13881,7 +14037,7 @@
         <v>30</v>
       </c>
       <c r="I320" s="12" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="272.10000000000002" customHeight="1">
@@ -14018,10 +14174,10 @@
         <v>0</v>
       </c>
       <c r="H326" s="8" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I326" s="12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="409.5" customHeight="1">
@@ -14047,10 +14203,10 @@
         <v>0</v>
       </c>
       <c r="H327" s="8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I327" s="12" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="248.1" customHeight="1">
@@ -14163,7 +14319,7 @@
         <v>931</v>
       </c>
       <c r="I332" s="12" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="272.10000000000002" customHeight="1">
@@ -14234,7 +14390,7 @@
         <v>932</v>
       </c>
       <c r="I335" s="12" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="409.5" customHeight="1">
@@ -14281,10 +14437,10 @@
         <v>0</v>
       </c>
       <c r="H337" s="8" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I337" s="12" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="338" spans="1:9" ht="368.1" customHeight="1">
@@ -14379,10 +14535,10 @@
         <v>1</v>
       </c>
       <c r="H341" s="8" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I341" s="12" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="409.5" customHeight="1">
@@ -14411,7 +14567,7 @@
         <v>934</v>
       </c>
       <c r="I342" s="12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="320.10000000000002" customHeight="1">
@@ -14521,10 +14677,10 @@
         <v>1</v>
       </c>
       <c r="H347" s="8" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I347" s="12" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="224.1" customHeight="1">
@@ -14550,10 +14706,10 @@
         <v>0</v>
       </c>
       <c r="H348" s="8" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I348" s="12" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="176.1" customHeight="1">
@@ -14606,10 +14762,10 @@
         <v>1</v>
       </c>
       <c r="H350" s="8" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I350" s="12" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="272.10000000000002" customHeight="1">
@@ -14680,7 +14836,7 @@
         <v>935</v>
       </c>
       <c r="I353" s="12" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="164.1" customHeight="1">
@@ -14754,10 +14910,10 @@
         <v>1</v>
       </c>
       <c r="H356" s="8" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I356" s="12" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="164.1" customHeight="1">
@@ -14928,7 +15084,7 @@
       </c>
       <c r="H363" s="8"/>
       <c r="I363" s="12" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="284.10000000000002" customHeight="1">
@@ -15062,7 +15218,7 @@
         <v>19</v>
       </c>
       <c r="I369" s="12" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="248.1" customHeight="1">
@@ -15193,10 +15349,10 @@
         <v>1</v>
       </c>
       <c r="H375" s="8" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I375" s="12" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="332.1" customHeight="1">
@@ -15270,10 +15426,10 @@
         <v>0</v>
       </c>
       <c r="H378" s="8" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I378" s="12" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="409.5" customHeight="1">
@@ -15329,7 +15485,7 @@
         <v>942</v>
       </c>
       <c r="I380" s="12" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="368.1" customHeight="1">
@@ -15376,10 +15532,10 @@
         <v>1</v>
       </c>
       <c r="H382" s="8" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I382" s="12" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="164.1" customHeight="1">
@@ -15405,10 +15561,10 @@
         <v>1</v>
       </c>
       <c r="H383" s="8" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="I383" s="12" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="176.1" customHeight="1">
@@ -15455,10 +15611,10 @@
         <v>0</v>
       </c>
       <c r="H385" s="8" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I385" s="12" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="386" spans="1:9" ht="200.1" customHeight="1">
@@ -15556,7 +15712,7 @@
         <v>944</v>
       </c>
       <c r="I389" s="12" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="390" spans="1:9" ht="284.10000000000002" customHeight="1">
@@ -15630,10 +15786,10 @@
         <v>1</v>
       </c>
       <c r="H392" s="8" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I392" s="12" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="393" spans="1:9" ht="409.5" customHeight="1">
@@ -15752,7 +15908,7 @@
         <v>881</v>
       </c>
       <c r="I397" s="12" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="398" spans="1:9" ht="296.10000000000002" customHeight="1">
@@ -15802,7 +15958,7 @@
         <v>901</v>
       </c>
       <c r="I399" s="12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="296.10000000000002" customHeight="1">
@@ -15963,7 +16119,7 @@
         <v>946</v>
       </c>
       <c r="I406" s="12" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="248.1" customHeight="1">
@@ -16295,7 +16451,7 @@
         <v>51</v>
       </c>
       <c r="I420" s="12" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="421" spans="1:9" ht="409.5" customHeight="1">
@@ -16318,7 +16474,7 @@
       <c r="G421" s="8"/>
       <c r="H421" s="8"/>
       <c r="I421" s="12" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="116.1" customHeight="1">
@@ -16368,7 +16524,7 @@
         <v>951</v>
       </c>
       <c r="I423" s="12" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="424" spans="1:9" ht="409.5" customHeight="1">
@@ -16466,7 +16622,7 @@
         <v>62</v>
       </c>
       <c r="I427" s="12" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="428" spans="1:9" ht="409.5" customHeight="1">
@@ -16558,7 +16714,7 @@
         <v>953</v>
       </c>
       <c r="I431" s="12" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="128.1" customHeight="1">
@@ -16605,10 +16761,10 @@
         <v>1</v>
       </c>
       <c r="H433" s="8" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I433" s="12" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="188.1" customHeight="1">
@@ -16634,10 +16790,10 @@
         <v>1</v>
       </c>
       <c r="H434" s="8" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I434" s="12" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="236.1" customHeight="1">
@@ -16720,7 +16876,7 @@
         <v>881</v>
       </c>
       <c r="I437" s="12" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="308.10000000000002" customHeight="1">
@@ -16770,7 +16926,7 @@
         <v>36</v>
       </c>
       <c r="I439" s="12" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="404.1" customHeight="1">
@@ -16919,10 +17075,10 @@
         <v>1</v>
       </c>
       <c r="H445" s="8" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I445" s="12" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="392.1" customHeight="1">
@@ -16969,10 +17125,10 @@
         <v>1</v>
       </c>
       <c r="H447" s="8" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I447" s="12" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="409.5" customHeight="1">
@@ -17073,10 +17229,10 @@
         <v>0</v>
       </c>
       <c r="H451" s="8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I451" s="12" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="452" spans="1:9" ht="344.1" customHeight="1">
@@ -17172,7 +17328,7 @@
       <c r="G455" s="8"/>
       <c r="H455" s="8"/>
       <c r="I455" s="12" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="456" spans="1:9" ht="409.5" customHeight="1">
@@ -17195,7 +17351,7 @@
       <c r="G456" s="8"/>
       <c r="H456" s="8"/>
       <c r="I456" s="12" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="409.5" customHeight="1">
@@ -17224,7 +17380,7 @@
         <v>960</v>
       </c>
       <c r="I457" s="12" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="458" spans="1:9" ht="409.5" customHeight="1">
@@ -17250,10 +17406,10 @@
         <v>0</v>
       </c>
       <c r="H458" s="8" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I458" s="12" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="459" spans="1:9" ht="128.1" customHeight="1">
@@ -17321,10 +17477,10 @@
         <v>0</v>
       </c>
       <c r="H461" s="8" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I461" s="12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="462" spans="1:9" ht="236.1" customHeight="1">
@@ -17398,10 +17554,10 @@
         <v>1</v>
       </c>
       <c r="H464" s="8" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I464" s="12" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="465" spans="1:9" ht="284.10000000000002" customHeight="1">
@@ -17478,7 +17634,7 @@
         <v>30</v>
       </c>
       <c r="I467" s="12" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="468" spans="1:9" ht="152.1" customHeight="1">
@@ -17624,7 +17780,7 @@
       <c r="G473" s="8"/>
       <c r="H473" s="8"/>
       <c r="I473" s="12" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="474" spans="1:9" ht="320.10000000000002" customHeight="1">
@@ -17944,7 +18100,7 @@
         <v>968</v>
       </c>
       <c r="I487" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="92.1" customHeight="1">
@@ -17967,7 +18123,7 @@
       <c r="G488" s="8"/>
       <c r="H488" s="8"/>
       <c r="I488" s="12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="176.1" customHeight="1">
@@ -18050,7 +18206,7 @@
         <v>971</v>
       </c>
       <c r="I491" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="308.10000000000002" customHeight="1">
@@ -18073,7 +18229,7 @@
       <c r="G492" s="8"/>
       <c r="H492" s="8"/>
       <c r="I492" s="12" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="236.1" customHeight="1">
@@ -18147,10 +18303,10 @@
         <v>1</v>
       </c>
       <c r="H495" s="8" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I495" s="12" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="20.100000000000001" customHeight="1">
@@ -18597,13 +18753,19 @@
         <v>2002</v>
       </c>
       <c r="E516" s="8">
-        <v>0</v>
-      </c>
-      <c r="F516" s="8"/>
-      <c r="G516" s="8"/>
-      <c r="H516" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F516" s="8">
+        <v>1</v>
+      </c>
+      <c r="G516" s="8">
+        <v>0</v>
+      </c>
+      <c r="H516" s="8" t="s">
+        <v>1319</v>
+      </c>
       <c r="I516" s="12" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="517" spans="1:9" ht="409.5" customHeight="1">
@@ -18668,19 +18830,13 @@
         <v>2013</v>
       </c>
       <c r="E519" s="8">
-        <v>1</v>
-      </c>
-      <c r="F519" s="8">
-        <v>0</v>
-      </c>
-      <c r="G519" s="8">
-        <v>0</v>
-      </c>
-      <c r="H519" s="8" t="s">
-        <v>974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F519" s="8"/>
+      <c r="G519" s="8"/>
+      <c r="H519" s="8"/>
       <c r="I519" s="12" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="520" spans="1:9" ht="409.5" customHeight="1">
@@ -18718,13 +18874,19 @@
         <v>2007</v>
       </c>
       <c r="E521" s="8">
-        <v>0</v>
-      </c>
-      <c r="F521" s="8"/>
-      <c r="G521" s="8"/>
-      <c r="H521" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F521" s="8">
+        <v>1</v>
+      </c>
+      <c r="G521" s="8">
+        <v>1</v>
+      </c>
+      <c r="H521" s="8" t="s">
+        <v>1320</v>
+      </c>
       <c r="I521" s="12" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="522" spans="1:9" ht="128.1" customHeight="1">
@@ -18771,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="H523" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I523" s="12"/>
     </row>
@@ -18894,13 +19056,19 @@
         <v>2007</v>
       </c>
       <c r="E529" s="8">
-        <v>0</v>
-      </c>
-      <c r="F529" s="8"/>
-      <c r="G529" s="8"/>
-      <c r="H529" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F529" s="8">
+        <v>1</v>
+      </c>
+      <c r="G529" s="8">
+        <v>1</v>
+      </c>
+      <c r="H529" s="8" t="s">
+        <v>1321</v>
+      </c>
       <c r="I529" s="12" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="530" spans="1:9" ht="224.1" customHeight="1">
@@ -18938,13 +19106,19 @@
         <v>1996</v>
       </c>
       <c r="E531" s="8">
-        <v>0</v>
-      </c>
-      <c r="F531" s="8"/>
-      <c r="G531" s="8"/>
-      <c r="H531" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F531" s="8">
+        <v>1</v>
+      </c>
+      <c r="G531" s="8">
+        <v>1</v>
+      </c>
+      <c r="H531" s="8" t="s">
+        <v>1322</v>
+      </c>
       <c r="I531" s="12" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="532" spans="1:9" ht="188.1" customHeight="1">
@@ -19075,10 +19249,10 @@
         <v>0</v>
       </c>
       <c r="H537" s="8" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I537" s="12" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="538" spans="1:9" ht="176.1" customHeight="1">
@@ -19116,13 +19290,19 @@
         <v>1999</v>
       </c>
       <c r="E539" s="8">
-        <v>0</v>
-      </c>
-      <c r="F539" s="8"/>
-      <c r="G539" s="8"/>
-      <c r="H539" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F539" s="8">
+        <v>0</v>
+      </c>
+      <c r="G539" s="8">
+        <v>0</v>
+      </c>
+      <c r="H539" s="8" t="s">
+        <v>1323</v>
+      </c>
       <c r="I539" s="12" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="540" spans="1:9" ht="164.1" customHeight="1">
@@ -19139,13 +19319,19 @@
         <v>2002</v>
       </c>
       <c r="E540" s="8">
-        <v>0</v>
-      </c>
-      <c r="F540" s="8"/>
-      <c r="G540" s="8"/>
-      <c r="H540" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F540" s="8">
+        <v>0</v>
+      </c>
+      <c r="G540" s="8">
+        <v>1</v>
+      </c>
+      <c r="H540" s="8" t="s">
+        <v>1324</v>
+      </c>
       <c r="I540" s="12" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="541" spans="1:9" ht="188.1" customHeight="1">
@@ -19213,7 +19399,7 @@
         <v>1</v>
       </c>
       <c r="H543" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I543" s="12"/>
     </row>
@@ -19261,7 +19447,7 @@
         <v>0</v>
       </c>
       <c r="H545" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I545" s="12"/>
     </row>
@@ -19357,7 +19543,7 @@
         <v>1</v>
       </c>
       <c r="H549" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I549" s="12"/>
     </row>
@@ -19417,13 +19603,19 @@
         <v>2010</v>
       </c>
       <c r="E552" s="8">
-        <v>0</v>
-      </c>
-      <c r="F552" s="8"/>
-      <c r="G552" s="8"/>
-      <c r="H552" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F552" s="8">
+        <v>0</v>
+      </c>
+      <c r="G552" s="8">
+        <v>1</v>
+      </c>
+      <c r="H552" s="8" t="s">
+        <v>1325</v>
+      </c>
       <c r="I552" s="12" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="553" spans="1:9" ht="140.1" customHeight="1">
@@ -19608,7 +19800,7 @@
         <v>1</v>
       </c>
       <c r="H560" s="8" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I560" s="12"/>
     </row>
@@ -19626,13 +19818,19 @@
         <v>2014</v>
       </c>
       <c r="E561" s="8">
-        <v>0</v>
-      </c>
-      <c r="F561" s="8"/>
-      <c r="G561" s="8"/>
-      <c r="H561" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F561" s="8">
+        <v>1</v>
+      </c>
+      <c r="G561" s="8">
+        <v>0</v>
+      </c>
+      <c r="H561" s="8" t="s">
+        <v>1326</v>
+      </c>
       <c r="I561" s="12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="562" spans="1:9" ht="368.1" customHeight="1">
@@ -19655,7 +19853,7 @@
       <c r="G562" s="8"/>
       <c r="H562" s="8"/>
       <c r="I562" s="12" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="563" spans="1:9" ht="409.5" customHeight="1">
@@ -19675,16 +19873,16 @@
         <v>1</v>
       </c>
       <c r="F563" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G563" s="8">
         <v>1</v>
       </c>
       <c r="H563" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I563" s="12" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="564" spans="1:9" ht="409.5" customHeight="1">
@@ -19773,7 +19971,7 @@
         <v>0</v>
       </c>
       <c r="H567" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I567" s="12"/>
     </row>
@@ -19791,13 +19989,19 @@
         <v>2019</v>
       </c>
       <c r="E568" s="8">
-        <v>0</v>
-      </c>
-      <c r="F568" s="8"/>
-      <c r="G568" s="8"/>
-      <c r="H568" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F568" s="8">
+        <v>1</v>
+      </c>
+      <c r="G568" s="8">
+        <v>1</v>
+      </c>
+      <c r="H568" s="8" t="s">
+        <v>1327</v>
+      </c>
       <c r="I568" s="12" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="569" spans="1:9" ht="320.10000000000002" customHeight="1">
@@ -19814,13 +20018,19 @@
         <v>1999</v>
       </c>
       <c r="E569" s="8">
-        <v>0</v>
-      </c>
-      <c r="F569" s="8"/>
-      <c r="G569" s="8"/>
-      <c r="H569" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F569" s="8">
+        <v>1</v>
+      </c>
+      <c r="G569" s="8">
+        <v>1</v>
+      </c>
+      <c r="H569" s="8" t="s">
+        <v>1328</v>
+      </c>
       <c r="I569" s="12" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="570" spans="1:9" ht="409.5" customHeight="1">
@@ -19837,13 +20047,19 @@
         <v>1997</v>
       </c>
       <c r="E570" s="8">
-        <v>0</v>
-      </c>
-      <c r="F570" s="8"/>
-      <c r="G570" s="8"/>
-      <c r="H570" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F570" s="8">
+        <v>1</v>
+      </c>
+      <c r="G570" s="8">
+        <v>1</v>
+      </c>
+      <c r="H570" s="8" t="s">
+        <v>1330</v>
+      </c>
       <c r="I570" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="571" spans="1:9" ht="236.1" customHeight="1">
@@ -19860,13 +20076,19 @@
         <v>2009</v>
       </c>
       <c r="E571" s="8">
-        <v>0</v>
-      </c>
-      <c r="F571" s="8"/>
-      <c r="G571" s="8"/>
-      <c r="H571" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F571" s="8">
+        <v>1</v>
+      </c>
+      <c r="G571" s="8">
+        <v>1</v>
+      </c>
+      <c r="H571" s="8" t="s">
+        <v>1329</v>
+      </c>
       <c r="I571" s="12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="572" spans="1:9" ht="409.5" customHeight="1">
@@ -19913,7 +20135,7 @@
         <v>0</v>
       </c>
       <c r="H573" s="8" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I573" s="12"/>
     </row>
@@ -19940,7 +20162,7 @@
         <v>1</v>
       </c>
       <c r="H574" s="8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I574" s="12"/>
     </row>
@@ -19967,7 +20189,7 @@
         <v>0</v>
       </c>
       <c r="H575" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I575" s="12"/>
     </row>
@@ -20027,13 +20249,19 @@
         <v>2013</v>
       </c>
       <c r="E578" s="8">
-        <v>0</v>
-      </c>
-      <c r="F578" s="8"/>
-      <c r="G578" s="8"/>
-      <c r="H578" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F578" s="8">
+        <v>0</v>
+      </c>
+      <c r="G578" s="8">
+        <v>1</v>
+      </c>
+      <c r="H578" s="8" t="s">
+        <v>1331</v>
+      </c>
       <c r="I578" s="12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="579" spans="1:9" ht="212.1" customHeight="1">
@@ -20077,13 +20305,13 @@
         <v>1</v>
       </c>
       <c r="G580" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H580" s="8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I580" s="12" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="581" spans="1:9" ht="409.5" customHeight="1">
@@ -20121,13 +20349,19 @@
         <v>1996</v>
       </c>
       <c r="E582" s="8">
-        <v>0</v>
-      </c>
-      <c r="F582" s="8"/>
-      <c r="G582" s="8"/>
-      <c r="H582" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F582" s="8">
+        <v>0</v>
+      </c>
+      <c r="G582" s="8">
+        <v>1</v>
+      </c>
+      <c r="H582" s="8" t="s">
+        <v>1332</v>
+      </c>
       <c r="I582" s="12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="583" spans="1:9" ht="409.5" customHeight="1">
@@ -20195,7 +20429,7 @@
         <v>0</v>
       </c>
       <c r="H585" s="8" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I585" s="12"/>
     </row>
@@ -20212,14 +20446,14 @@
       <c r="D586" s="7">
         <v>2001</v>
       </c>
-      <c r="E586" s="8"/>
-      <c r="F586" s="8">
-        <v>0</v>
-      </c>
+      <c r="E586" s="8">
+        <v>0</v>
+      </c>
+      <c r="F586" s="8"/>
       <c r="G586" s="8"/>
       <c r="H586" s="8"/>
       <c r="I586" s="12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="587" spans="1:9" ht="409.5" customHeight="1">
@@ -20235,14 +20469,20 @@
       <c r="D587" s="7">
         <v>2018</v>
       </c>
-      <c r="E587" s="8"/>
+      <c r="E587" s="8">
+        <v>1</v>
+      </c>
       <c r="F587" s="8">
-        <v>0</v>
-      </c>
-      <c r="G587" s="8"/>
-      <c r="H587" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="G587" s="8">
+        <v>1</v>
+      </c>
+      <c r="H587" s="8" t="s">
+        <v>1333</v>
+      </c>
       <c r="I587" s="12" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="588" spans="1:9" ht="380.1" customHeight="1">
@@ -20268,7 +20508,7 @@
         <v>0</v>
       </c>
       <c r="H588" s="8" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I588" s="12"/>
     </row>
@@ -20307,13 +20547,19 @@
         <v>2006</v>
       </c>
       <c r="E590" s="8">
-        <v>0</v>
-      </c>
-      <c r="F590" s="8"/>
-      <c r="G590" s="8"/>
-      <c r="H590" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F590" s="8">
+        <v>1</v>
+      </c>
+      <c r="G590" s="8">
+        <v>1</v>
+      </c>
+      <c r="H590" s="8" t="s">
+        <v>1334</v>
+      </c>
       <c r="I590" s="12" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="591" spans="1:9" ht="188.1" customHeight="1">
@@ -20357,13 +20603,13 @@
         <v>1</v>
       </c>
       <c r="G592" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H592" s="8" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I592" s="12" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="593" spans="1:9" ht="296.10000000000002" customHeight="1">
@@ -20401,13 +20647,19 @@
         <v>2015</v>
       </c>
       <c r="E594" s="8">
-        <v>0</v>
-      </c>
-      <c r="F594" s="8"/>
-      <c r="G594" s="8"/>
-      <c r="H594" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F594" s="8">
+        <v>0</v>
+      </c>
+      <c r="G594" s="8">
+        <v>0</v>
+      </c>
+      <c r="H594" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="I594" s="12" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="595" spans="1:9" ht="236.1" customHeight="1">
@@ -20424,13 +20676,19 @@
         <v>1995</v>
       </c>
       <c r="E595" s="8">
-        <v>0</v>
-      </c>
-      <c r="F595" s="8"/>
-      <c r="G595" s="8"/>
-      <c r="H595" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F595" s="8">
+        <v>1</v>
+      </c>
+      <c r="G595" s="8">
+        <v>1</v>
+      </c>
+      <c r="H595" s="8" t="s">
+        <v>1335</v>
+      </c>
       <c r="I595" s="12" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="596" spans="1:9" ht="409.5" customHeight="1">
@@ -20456,7 +20714,7 @@
         <v>1</v>
       </c>
       <c r="H596" s="8" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I596" s="12"/>
     </row>
@@ -20504,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="H598" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I598" s="12"/>
     </row>
@@ -20552,7 +20810,7 @@
         <v>0</v>
       </c>
       <c r="H600" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I600" s="12"/>
     </row>
@@ -20576,13 +20834,13 @@
         <v>1</v>
       </c>
       <c r="G601" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H601" s="8" t="s">
         <v>51</v>
       </c>
       <c r="I601" s="12" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="602" spans="1:9" ht="409.5" customHeight="1">
@@ -20662,13 +20920,19 @@
         <v>1995</v>
       </c>
       <c r="E605" s="8">
-        <v>0</v>
-      </c>
-      <c r="F605" s="8"/>
-      <c r="G605" s="8"/>
-      <c r="H605" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F605" s="8">
+        <v>1</v>
+      </c>
+      <c r="G605" s="8">
+        <v>0</v>
+      </c>
+      <c r="H605" s="8" t="s">
+        <v>1336</v>
+      </c>
       <c r="I605" s="12" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="606" spans="1:9" ht="272.10000000000002" customHeight="1">
@@ -20685,13 +20949,19 @@
         <v>2006</v>
       </c>
       <c r="E606" s="8">
-        <v>0</v>
-      </c>
-      <c r="F606" s="8"/>
-      <c r="G606" s="8"/>
-      <c r="H606" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F606" s="8">
+        <v>1</v>
+      </c>
+      <c r="G606" s="8">
+        <v>1</v>
+      </c>
+      <c r="H606" s="8" t="s">
+        <v>1337</v>
+      </c>
       <c r="I606" s="12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="607" spans="1:9" ht="380.1" customHeight="1">
@@ -20711,16 +20981,16 @@
         <v>1</v>
       </c>
       <c r="F607" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G607" s="8">
         <v>0</v>
       </c>
       <c r="H607" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I607" s="12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="608" spans="1:9" ht="409.5" customHeight="1">
@@ -20737,13 +21007,19 @@
         <v>2003</v>
       </c>
       <c r="E608" s="8">
-        <v>0</v>
-      </c>
-      <c r="F608" s="8"/>
-      <c r="G608" s="8"/>
-      <c r="H608" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F608" s="8">
+        <v>1</v>
+      </c>
+      <c r="G608" s="8">
+        <v>1</v>
+      </c>
+      <c r="H608" s="8" t="s">
+        <v>1338</v>
+      </c>
       <c r="I608" s="12" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="609" spans="1:9" ht="409.5" customHeight="1">
@@ -20853,7 +21129,7 @@
         <v>1</v>
       </c>
       <c r="H613" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I613" s="12"/>
     </row>
@@ -20871,13 +21147,19 @@
         <v>1996</v>
       </c>
       <c r="E614" s="8">
-        <v>0</v>
-      </c>
-      <c r="F614" s="8"/>
-      <c r="G614" s="8"/>
-      <c r="H614" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F614" s="8">
+        <v>1</v>
+      </c>
+      <c r="G614" s="8">
+        <v>1</v>
+      </c>
+      <c r="H614" s="8" t="s">
+        <v>1339</v>
+      </c>
       <c r="I614" s="12" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="615" spans="1:9" ht="236.1" customHeight="1">
@@ -20903,7 +21185,7 @@
         <v>0</v>
       </c>
       <c r="H615" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I615" s="12"/>
     </row>
@@ -20942,13 +21224,19 @@
         <v>2003</v>
       </c>
       <c r="E617" s="8">
-        <v>0</v>
-      </c>
-      <c r="F617" s="8"/>
-      <c r="G617" s="8"/>
-      <c r="H617" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F617" s="8">
+        <v>1</v>
+      </c>
+      <c r="G617" s="8">
+        <v>1</v>
+      </c>
+      <c r="H617" s="8" t="s">
+        <v>1340</v>
+      </c>
       <c r="I617" s="12" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="618" spans="1:9" ht="392.1" customHeight="1">
@@ -20971,7 +21259,7 @@
       <c r="G618" s="8"/>
       <c r="H618" s="8"/>
       <c r="I618" s="12" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="619" spans="1:9" ht="409.5" customHeight="1">
@@ -20991,16 +21279,16 @@
         <v>1</v>
       </c>
       <c r="F619" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G619" s="8">
         <v>1</v>
       </c>
       <c r="H619" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I619" s="12" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="620" spans="1:9" ht="409.5" customHeight="1">
@@ -21080,13 +21368,19 @@
         <v>2016</v>
       </c>
       <c r="E623" s="8">
-        <v>0</v>
-      </c>
-      <c r="F623" s="8"/>
-      <c r="G623" s="8"/>
-      <c r="H623" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F623" s="8">
+        <v>0</v>
+      </c>
+      <c r="G623" s="8">
+        <v>1</v>
+      </c>
+      <c r="H623" s="8" t="s">
+        <v>1341</v>
+      </c>
       <c r="I623" s="12" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="624" spans="1:9" ht="296.10000000000002" customHeight="1">
@@ -21133,7 +21427,7 @@
         <v>1</v>
       </c>
       <c r="H625" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I625" s="12"/>
     </row>
@@ -21151,13 +21445,19 @@
         <v>2014</v>
       </c>
       <c r="E626" s="8">
-        <v>0</v>
-      </c>
-      <c r="F626" s="8"/>
-      <c r="G626" s="8"/>
-      <c r="H626" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F626" s="8">
+        <v>1</v>
+      </c>
+      <c r="G626" s="8">
+        <v>1</v>
+      </c>
+      <c r="H626" s="8" t="s">
+        <v>1342</v>
+      </c>
       <c r="I626" s="12" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="627" spans="1:9" ht="356.1" customHeight="1">
@@ -21174,13 +21474,19 @@
         <v>2004</v>
       </c>
       <c r="E627" s="8">
-        <v>0</v>
-      </c>
-      <c r="F627" s="8"/>
-      <c r="G627" s="8"/>
-      <c r="H627" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F627" s="8">
+        <v>1</v>
+      </c>
+      <c r="G627" s="8">
+        <v>1</v>
+      </c>
+      <c r="H627" s="8" t="s">
+        <v>1343</v>
+      </c>
       <c r="I627" s="12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="628" spans="1:9" ht="320.10000000000002" customHeight="1">
@@ -21206,7 +21512,7 @@
         <v>0</v>
       </c>
       <c r="H628" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I628" s="12"/>
     </row>
@@ -21350,13 +21656,19 @@
         <v>2013</v>
       </c>
       <c r="E635" s="8">
-        <v>0</v>
-      </c>
-      <c r="F635" s="8"/>
-      <c r="G635" s="8"/>
-      <c r="H635" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F635" s="8">
+        <v>1</v>
+      </c>
+      <c r="G635" s="8">
+        <v>0</v>
+      </c>
+      <c r="H635" s="8" t="s">
+        <v>1344</v>
+      </c>
       <c r="I635" s="12" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="636" spans="1:9" ht="308.10000000000002" customHeight="1">
@@ -21382,7 +21694,7 @@
         <v>0</v>
       </c>
       <c r="H636" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I636" s="12"/>
     </row>
@@ -21400,13 +21712,19 @@
         <v>2019</v>
       </c>
       <c r="E637" s="8">
-        <v>0</v>
-      </c>
-      <c r="F637" s="8"/>
-      <c r="G637" s="8"/>
-      <c r="H637" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F637" s="8">
+        <v>1</v>
+      </c>
+      <c r="G637" s="8">
+        <v>1</v>
+      </c>
+      <c r="H637" s="8" t="s">
+        <v>1345</v>
+      </c>
       <c r="I637" s="12" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="638" spans="1:9" ht="176.1" customHeight="1">
@@ -21444,13 +21762,19 @@
         <v>2015</v>
       </c>
       <c r="E639" s="8">
-        <v>0</v>
-      </c>
-      <c r="F639" s="8"/>
-      <c r="G639" s="8"/>
-      <c r="H639" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F639" s="8">
+        <v>1</v>
+      </c>
+      <c r="G639" s="8">
+        <v>0</v>
+      </c>
+      <c r="H639" s="8" t="s">
+        <v>1346</v>
+      </c>
       <c r="I639" s="12" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="640" spans="1:9" ht="296.10000000000002" customHeight="1">
@@ -21476,7 +21800,7 @@
         <v>1</v>
       </c>
       <c r="H640" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I640" s="12"/>
     </row>
@@ -21515,13 +21839,19 @@
         <v>2001</v>
       </c>
       <c r="E642" s="8">
-        <v>0</v>
-      </c>
-      <c r="F642" s="8"/>
-      <c r="G642" s="8"/>
-      <c r="H642" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F642" s="8">
+        <v>1</v>
+      </c>
+      <c r="G642" s="8">
+        <v>1</v>
+      </c>
+      <c r="H642" s="8" t="s">
+        <v>1347</v>
+      </c>
       <c r="I642" s="12" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="643" spans="1:9" ht="409.5" customHeight="1">
@@ -21538,13 +21868,19 @@
         <v>1999</v>
       </c>
       <c r="E643" s="8">
-        <v>0</v>
-      </c>
-      <c r="F643" s="8"/>
-      <c r="G643" s="8"/>
-      <c r="H643" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F643" s="8">
+        <v>1</v>
+      </c>
+      <c r="G643" s="8">
+        <v>1</v>
+      </c>
+      <c r="H643" s="8" t="s">
+        <v>1348</v>
+      </c>
       <c r="I643" s="12" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="644" spans="1:9" ht="344.1" customHeight="1">
@@ -21588,7 +21924,7 @@
       <c r="G645" s="8"/>
       <c r="H645" s="8"/>
       <c r="I645" s="12" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="646" spans="1:9" ht="409.5" customHeight="1">
@@ -21614,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="H646" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I646" s="12"/>
     </row>
@@ -21716,13 +22052,19 @@
         <v>2011</v>
       </c>
       <c r="E651" s="8">
-        <v>0</v>
-      </c>
-      <c r="F651" s="8"/>
-      <c r="G651" s="8"/>
-      <c r="H651" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F651" s="8">
+        <v>1</v>
+      </c>
+      <c r="G651" s="8">
+        <v>1</v>
+      </c>
+      <c r="H651" s="8" t="s">
+        <v>1349</v>
+      </c>
       <c r="I651" s="12" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="652" spans="1:9" ht="409.5" customHeight="1">
@@ -21748,10 +22090,10 @@
         <v>0</v>
       </c>
       <c r="H652" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I652" s="12" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="653" spans="1:9" ht="164.1" customHeight="1">
@@ -21819,7 +22161,7 @@
         <v>0</v>
       </c>
       <c r="H655" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I655" s="12"/>
     </row>
@@ -21836,12 +22178,20 @@
       <c r="D656" s="7">
         <v>1995</v>
       </c>
-      <c r="E656" s="8"/>
-      <c r="F656" s="8"/>
-      <c r="G656" s="8"/>
-      <c r="H656" s="8"/>
+      <c r="E656" s="8">
+        <v>1</v>
+      </c>
+      <c r="F656" s="8">
+        <v>1</v>
+      </c>
+      <c r="G656" s="8">
+        <v>1</v>
+      </c>
+      <c r="H656" s="8" t="s">
+        <v>1350</v>
+      </c>
       <c r="I656" s="12" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="657" spans="1:9" ht="409.5" customHeight="1">
@@ -21864,13 +22214,13 @@
         <v>1</v>
       </c>
       <c r="G657" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H657" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I657" s="12" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="658" spans="1:9" ht="409.5" customHeight="1">
@@ -21980,7 +22330,7 @@
         <v>1</v>
       </c>
       <c r="H662" s="8" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I662" s="12"/>
     </row>
@@ -22049,7 +22399,7 @@
         <v>1</v>
       </c>
       <c r="H665" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I665" s="12"/>
     </row>
@@ -22109,13 +22459,19 @@
         <v>2018</v>
       </c>
       <c r="E668" s="8">
-        <v>0</v>
-      </c>
-      <c r="F668" s="8"/>
-      <c r="G668" s="8"/>
-      <c r="H668" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F668" s="8">
+        <v>0</v>
+      </c>
+      <c r="G668" s="8">
+        <v>1</v>
+      </c>
+      <c r="H668" s="8" t="s">
+        <v>1351</v>
+      </c>
       <c r="I668" s="12" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="669" spans="1:9" ht="128.1" customHeight="1">
@@ -22138,13 +22494,13 @@
         <v>0</v>
       </c>
       <c r="G669" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H669" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I669" s="12" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="670" spans="1:9" ht="332.1" customHeight="1">
@@ -22161,13 +22517,17 @@
         <v>2020</v>
       </c>
       <c r="E670" s="8">
-        <v>0</v>
-      </c>
-      <c r="F670" s="8"/>
-      <c r="G670" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F670" s="8">
+        <v>1</v>
+      </c>
+      <c r="G670" s="8">
+        <v>0</v>
+      </c>
       <c r="H670" s="8"/>
       <c r="I670" s="12" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="671" spans="1:9" ht="356.1" customHeight="1">
@@ -22193,7 +22553,7 @@
         <v>1</v>
       </c>
       <c r="H671" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I671" s="12"/>
     </row>
@@ -22220,7 +22580,7 @@
         <v>0</v>
       </c>
       <c r="H672" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I672" s="12"/>
     </row>
@@ -22280,13 +22640,19 @@
         <v>2002</v>
       </c>
       <c r="E675" s="8">
-        <v>0</v>
-      </c>
-      <c r="F675" s="8"/>
-      <c r="G675" s="8"/>
-      <c r="H675" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F675" s="8">
+        <v>0</v>
+      </c>
+      <c r="G675" s="8">
+        <v>1</v>
+      </c>
+      <c r="H675" s="8" t="s">
+        <v>1352</v>
+      </c>
       <c r="I675" s="12" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="676" spans="1:9" ht="152.1" customHeight="1">
@@ -22330,13 +22696,19 @@
         <v>2009</v>
       </c>
       <c r="E677" s="8">
-        <v>0</v>
-      </c>
-      <c r="F677" s="8"/>
-      <c r="G677" s="8"/>
-      <c r="H677" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F677" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G677" s="8">
+        <v>1</v>
+      </c>
+      <c r="H677" s="8" t="s">
+        <v>1353</v>
+      </c>
       <c r="I677" s="12" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="678" spans="1:9" ht="188.1" customHeight="1">
@@ -22353,13 +22725,19 @@
         <v>1996</v>
       </c>
       <c r="E678" s="8">
-        <v>0</v>
-      </c>
-      <c r="F678" s="8"/>
-      <c r="G678" s="8"/>
-      <c r="H678" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F678" s="8">
+        <v>1</v>
+      </c>
+      <c r="G678" s="8">
+        <v>1</v>
+      </c>
+      <c r="H678" s="8" t="s">
+        <v>1354</v>
+      </c>
       <c r="I678" s="12" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="679" spans="1:9" ht="409.5" customHeight="1">
@@ -22376,19 +22754,15 @@
         <v>2016</v>
       </c>
       <c r="E679" s="8">
-        <v>1</v>
-      </c>
-      <c r="F679" s="8">
-        <v>0</v>
-      </c>
-      <c r="G679" s="8">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F679" s="8"/>
+      <c r="G679" s="8"/>
       <c r="H679" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I679" s="12" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="680" spans="1:9" ht="212.1" customHeight="1">
@@ -22414,7 +22788,7 @@
         <v>1</v>
       </c>
       <c r="H680" s="8" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I680" s="12"/>
     </row>
@@ -22627,13 +23001,19 @@
         <v>2001</v>
       </c>
       <c r="E690" s="8">
-        <v>0</v>
-      </c>
-      <c r="F690" s="8"/>
-      <c r="G690" s="8"/>
-      <c r="H690" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F690" s="8">
+        <v>1</v>
+      </c>
+      <c r="G690" s="8">
+        <v>1</v>
+      </c>
+      <c r="H690" s="8" t="s">
+        <v>1355</v>
+      </c>
       <c r="I690" s="12" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="691" spans="1:9" ht="200.1" customHeight="1">
@@ -22695,16 +23075,16 @@
         <v>1</v>
       </c>
       <c r="F693" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G693" s="8">
         <v>0</v>
       </c>
       <c r="H693" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I693" s="12" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="694" spans="1:9" ht="368.1" customHeight="1">
@@ -22720,12 +23100,20 @@
       <c r="D694" s="7">
         <v>2006</v>
       </c>
-      <c r="E694" s="8"/>
-      <c r="F694" s="8"/>
-      <c r="G694" s="8"/>
-      <c r="H694" s="8"/>
+      <c r="E694" s="8">
+        <v>1</v>
+      </c>
+      <c r="F694" s="8">
+        <v>1</v>
+      </c>
+      <c r="G694" s="8">
+        <v>1</v>
+      </c>
+      <c r="H694" s="8" t="s">
+        <v>1356</v>
+      </c>
       <c r="I694" s="12" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="695" spans="1:9" ht="224.1" customHeight="1">
@@ -22916,13 +23304,19 @@
         <v>2010</v>
       </c>
       <c r="E703" s="8">
-        <v>0</v>
-      </c>
-      <c r="F703" s="8"/>
-      <c r="G703" s="8"/>
-      <c r="H703" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F703" s="8">
+        <v>1</v>
+      </c>
+      <c r="G703" s="8">
+        <v>0</v>
+      </c>
+      <c r="H703" s="8" t="s">
+        <v>1357</v>
+      </c>
       <c r="I703" s="12" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="704" spans="1:9" ht="409.5" customHeight="1">
@@ -22981,13 +23375,19 @@
         <v>2009</v>
       </c>
       <c r="E706" s="8">
-        <v>0</v>
-      </c>
-      <c r="F706" s="8"/>
-      <c r="G706" s="8"/>
-      <c r="H706" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F706" s="8">
+        <v>0</v>
+      </c>
+      <c r="G706" s="8">
+        <v>0</v>
+      </c>
+      <c r="H706" s="8" t="s">
+        <v>1358</v>
+      </c>
       <c r="I706" s="12" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="707" spans="1:9" ht="128.1" customHeight="1">
@@ -23046,13 +23446,19 @@
         <v>2001</v>
       </c>
       <c r="E709" s="8">
-        <v>0</v>
-      </c>
-      <c r="F709" s="8"/>
-      <c r="G709" s="8"/>
-      <c r="H709" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F709" s="8">
+        <v>1</v>
+      </c>
+      <c r="G709" s="8">
+        <v>1</v>
+      </c>
+      <c r="H709" s="8" t="s">
+        <v>1359</v>
+      </c>
       <c r="I709" s="12" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="710" spans="1:9" ht="128.1" customHeight="1">
@@ -23069,13 +23475,19 @@
         <v>2010</v>
       </c>
       <c r="E710" s="8">
-        <v>0</v>
-      </c>
-      <c r="F710" s="8"/>
-      <c r="G710" s="8"/>
-      <c r="H710" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F710" s="8">
+        <v>0</v>
+      </c>
+      <c r="G710" s="8">
+        <v>0</v>
+      </c>
+      <c r="H710" s="8" t="s">
+        <v>1360</v>
+      </c>
       <c r="I710" s="12" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="711" spans="1:9" ht="200.1" customHeight="1">
@@ -23164,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="H714" s="8" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I714" s="12" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="715" spans="1:9" ht="409.5" customHeight="1">
@@ -23184,13 +23596,19 @@
         <v>2014</v>
       </c>
       <c r="E715" s="8">
-        <v>0</v>
-      </c>
-      <c r="F715" s="8"/>
-      <c r="G715" s="8"/>
-      <c r="H715" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F715" s="8">
+        <v>0</v>
+      </c>
+      <c r="G715" s="8">
+        <v>1</v>
+      </c>
+      <c r="H715" s="8" t="s">
+        <v>1361</v>
+      </c>
       <c r="I715" s="12" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="716" spans="1:9" ht="308.10000000000002" customHeight="1">
@@ -23279,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="H719" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I719" s="12"/>
     </row>
@@ -23306,7 +23724,7 @@
         <v>0</v>
       </c>
       <c r="H720" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I720" s="12"/>
     </row>
@@ -23371,12 +23789,20 @@
       <c r="D723" s="7">
         <v>2003</v>
       </c>
-      <c r="E723" s="8"/>
-      <c r="F723" s="8"/>
-      <c r="G723" s="8"/>
-      <c r="H723" s="8"/>
+      <c r="E723" s="8">
+        <v>1</v>
+      </c>
+      <c r="F723" s="8">
+        <v>1</v>
+      </c>
+      <c r="G723" s="8">
+        <v>0</v>
+      </c>
+      <c r="H723" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I723" s="12" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="724" spans="1:9" ht="356.1" customHeight="1">
@@ -23492,7 +23918,7 @@
         <v>1</v>
       </c>
       <c r="H728" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I728" s="12"/>
     </row>
@@ -23561,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="H731" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I731" s="12"/>
     </row>
@@ -23588,7 +24014,7 @@
         <v>1</v>
       </c>
       <c r="H732" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="I732" s="12"/>
     </row>
@@ -23630,16 +24056,16 @@
         <v>1</v>
       </c>
       <c r="F734" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G734" s="8">
         <v>1</v>
       </c>
       <c r="H734" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I734" s="12" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="735" spans="1:9" ht="308.10000000000002" customHeight="1">
@@ -23686,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="H736" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I736" s="12"/>
     </row>
@@ -23713,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="H737" s="8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I737" s="12"/>
     </row>
@@ -23731,13 +24157,19 @@
         <v>2007</v>
       </c>
       <c r="E738" s="8">
-        <v>0</v>
-      </c>
-      <c r="F738" s="8"/>
-      <c r="G738" s="8"/>
-      <c r="H738" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F738" s="8">
+        <v>1</v>
+      </c>
+      <c r="G738" s="8">
+        <v>1</v>
+      </c>
+      <c r="H738" s="8" t="s">
+        <v>1362</v>
+      </c>
       <c r="I738" s="12" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="739" spans="1:9" ht="368.1" customHeight="1">
@@ -23799,7 +24231,7 @@
         <v>1</v>
       </c>
       <c r="F741" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G741" s="8">
         <v>0</v>
@@ -23808,7 +24240,7 @@
         <v>945</v>
       </c>
       <c r="I741" s="12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="742" spans="1:9" ht="368.1" customHeight="1">
@@ -23825,13 +24257,19 @@
         <v>2013</v>
       </c>
       <c r="E742" s="8">
-        <v>0</v>
-      </c>
-      <c r="F742" s="8"/>
-      <c r="G742" s="8"/>
-      <c r="H742" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F742" s="8">
+        <v>1</v>
+      </c>
+      <c r="G742" s="8">
+        <v>1</v>
+      </c>
+      <c r="H742" s="8" t="s">
+        <v>1363</v>
+      </c>
       <c r="I742" s="12" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="743" spans="1:9" ht="368.1" customHeight="1">
@@ -23851,16 +24289,16 @@
         <v>1</v>
       </c>
       <c r="F743" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G743" s="8">
         <v>0</v>
       </c>
       <c r="H743" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I743" s="12" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="744" spans="1:9" ht="409.5" customHeight="1">
@@ -23901,16 +24339,16 @@
         <v>1</v>
       </c>
       <c r="F745" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G745" s="8">
         <v>1</v>
       </c>
       <c r="H745" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I745" s="12" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="746" spans="1:9" ht="320.10000000000002" customHeight="1">
@@ -24095,13 +24533,19 @@
         <v>1997</v>
       </c>
       <c r="E754" s="8">
-        <v>0</v>
-      </c>
-      <c r="F754" s="8"/>
-      <c r="G754" s="8"/>
-      <c r="H754" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F754" s="8">
+        <v>0</v>
+      </c>
+      <c r="G754" s="8">
+        <v>0</v>
+      </c>
+      <c r="H754" s="8" t="s">
+        <v>1364</v>
+      </c>
       <c r="I754" s="12" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="755" spans="1:9" ht="409.5" customHeight="1">
@@ -24145,13 +24589,13 @@
         <v>1</v>
       </c>
       <c r="G756" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H756" s="8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I756" s="12" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="757" spans="1:9" ht="409.5" customHeight="1">
@@ -24261,7 +24705,7 @@
         <v>1</v>
       </c>
       <c r="H761" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I761" s="12"/>
     </row>
@@ -24279,13 +24723,19 @@
         <v>2010</v>
       </c>
       <c r="E762" s="8">
-        <v>0</v>
-      </c>
-      <c r="F762" s="8"/>
-      <c r="G762" s="8"/>
-      <c r="H762" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F762" s="8">
+        <v>1</v>
+      </c>
+      <c r="G762" s="8">
+        <v>1</v>
+      </c>
+      <c r="H762" s="8" t="s">
+        <v>1365</v>
+      </c>
       <c r="I762" s="12" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="763" spans="1:9" ht="284.10000000000002" customHeight="1">
@@ -24311,10 +24761,10 @@
         <v>1</v>
       </c>
       <c r="H763" s="8" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I763" s="12" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="764" spans="1:9" ht="344.1" customHeight="1">
@@ -24340,7 +24790,7 @@
         <v>0</v>
       </c>
       <c r="H764" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I764" s="12"/>
     </row>
@@ -24357,12 +24807,20 @@
       <c r="D765" s="7">
         <v>2016</v>
       </c>
-      <c r="E765" s="8"/>
-      <c r="F765" s="8"/>
-      <c r="G765" s="8"/>
-      <c r="H765" s="8"/>
+      <c r="E765" s="8">
+        <v>1</v>
+      </c>
+      <c r="F765" s="8">
+        <v>1</v>
+      </c>
+      <c r="G765" s="8">
+        <v>0</v>
+      </c>
+      <c r="H765" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="I765" s="12" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="766" spans="1:9" ht="272.10000000000002" customHeight="1">
@@ -24388,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="H766" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I766" s="12"/>
     </row>
@@ -24499,7 +24957,7 @@
         <v>0</v>
       </c>
       <c r="H771" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I771" s="12"/>
     </row>
@@ -24593,7 +25051,7 @@
         <v>0</v>
       </c>
       <c r="H775" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I775" s="12"/>
     </row>
@@ -24678,13 +25136,19 @@
         <v>2015</v>
       </c>
       <c r="E779" s="8">
-        <v>0</v>
-      </c>
-      <c r="F779" s="8"/>
-      <c r="G779" s="8"/>
-      <c r="H779" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F779" s="8">
+        <v>1</v>
+      </c>
+      <c r="G779" s="8">
+        <v>1</v>
+      </c>
+      <c r="H779" s="8" t="s">
+        <v>1366</v>
+      </c>
       <c r="I779" s="12" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="780" spans="1:9" ht="409.5" customHeight="1">
@@ -24701,13 +25165,19 @@
         <v>2013</v>
       </c>
       <c r="E780" s="8">
-        <v>0</v>
-      </c>
-      <c r="F780" s="8"/>
-      <c r="G780" s="8"/>
-      <c r="H780" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F780" s="8">
+        <v>1</v>
+      </c>
+      <c r="G780" s="8">
+        <v>0</v>
+      </c>
+      <c r="H780" s="8" t="s">
+        <v>871</v>
+      </c>
       <c r="I780" s="12" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="781" spans="1:9" ht="332.1" customHeight="1">
@@ -24766,13 +25236,19 @@
         <v>2000</v>
       </c>
       <c r="E783" s="8">
-        <v>0</v>
-      </c>
-      <c r="F783" s="8"/>
-      <c r="G783" s="8"/>
-      <c r="H783" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F783" s="8">
+        <v>1</v>
+      </c>
+      <c r="G783" s="8">
+        <v>0</v>
+      </c>
+      <c r="H783" s="8" t="s">
+        <v>1367</v>
+      </c>
       <c r="I783" s="12" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="784" spans="1:9" ht="284.10000000000002" customHeight="1">
@@ -24789,13 +25265,19 @@
         <v>2015</v>
       </c>
       <c r="E784" s="8">
-        <v>0</v>
-      </c>
-      <c r="F784" s="8"/>
-      <c r="G784" s="8"/>
-      <c r="H784" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F784" s="8">
+        <v>1</v>
+      </c>
+      <c r="G784" s="8">
+        <v>1</v>
+      </c>
+      <c r="H784" s="8" t="s">
+        <v>1368</v>
+      </c>
       <c r="I784" s="12" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="785" spans="1:9" ht="409.5" customHeight="1">
@@ -24854,13 +25336,19 @@
         <v>1996</v>
       </c>
       <c r="E787" s="8">
-        <v>0</v>
-      </c>
-      <c r="F787" s="8"/>
-      <c r="G787" s="8"/>
-      <c r="H787" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F787" s="8">
+        <v>1</v>
+      </c>
+      <c r="G787" s="8">
+        <v>1</v>
+      </c>
+      <c r="H787" s="8" t="s">
+        <v>1369</v>
+      </c>
       <c r="I787" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="788" spans="1:9" ht="409.5" customHeight="1">
@@ -24955,7 +25443,7 @@
         <v>1</v>
       </c>
       <c r="H791" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I791" s="12"/>
     </row>
@@ -24973,13 +25461,19 @@
         <v>2015</v>
       </c>
       <c r="E792" s="8">
-        <v>0</v>
-      </c>
-      <c r="F792" s="8"/>
-      <c r="G792" s="8"/>
-      <c r="H792" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F792" s="8">
+        <v>0</v>
+      </c>
+      <c r="G792" s="8">
+        <v>0</v>
+      </c>
+      <c r="H792" s="8" t="s">
+        <v>1370</v>
+      </c>
       <c r="I792" s="12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="793" spans="1:9" ht="380.1" customHeight="1">
@@ -24996,13 +25490,19 @@
         <v>2012</v>
       </c>
       <c r="E793" s="8">
-        <v>0</v>
-      </c>
-      <c r="F793" s="8"/>
-      <c r="G793" s="8"/>
-      <c r="H793" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="F793" s="8">
+        <v>0</v>
+      </c>
+      <c r="G793" s="8">
+        <v>0</v>
+      </c>
+      <c r="H793" s="8" t="s">
+        <v>1371</v>
+      </c>
       <c r="I793" s="12" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="794" spans="1:9" ht="272.10000000000002" customHeight="1">
@@ -25091,7 +25591,7 @@
         <v>1</v>
       </c>
       <c r="H797" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I797" s="12"/>
     </row>
@@ -25118,10 +25618,10 @@
         <v>1</v>
       </c>
       <c r="H798" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="I798" s="12" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="799" spans="1:9" ht="409.5" customHeight="1">
